--- a/biology/Histoire de la zoologie et de la botanique/Gerard_Krefft/Gerard_Krefft.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gerard_Krefft/Gerard_Krefft.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Ludwig Gerard Krefft est un  naturaliste  australien d’origine allemande, né le 17 février 1830 à Brunswick et mort le 19 février 1881 à Woolloomooloo, une banlieue de Sydney.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il tente d’abord sa chance comme homme d’affaires et émigre aux  États-Unis en 1851. Il vit quelque temps à New York comme artiste avant de partir en juillet 1852 pour l’Australie, destination alors fort prisée par les chercheurs d’or.
 Il travaille dans une mine jusqu’en 1857 avant de s’installer à Melbourne. Il est recruté par Sir Frederick McCoy (1817 ou 1823-1899) pour le poste d’assistant-conservateur et d’illustrateur au Muséum australien d’histoire naturelle de Sydney et en devient le directeur en 1861.
